--- a/Documents/440Schedule.xlsx
+++ b/Documents/440Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{86FD3330-F570-4056-83CC-8F91418F8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FF36F7-809F-451A-A10C-856978795DD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0120DAFD-6FFE-455D-8E34-6C17092BC7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dark" sheetId="16" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>PROJECT: 440 Database Project</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Test Database In MySQL</t>
   </si>
   <si>
-    <t>Evan</t>
-  </si>
-  <si>
     <t>Create Web Application</t>
   </si>
   <si>
@@ -199,7 +196,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,36 +886,6 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1162,6 +1129,36 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1477,7 +1474,7 @@
                   <a14:compatExt spid="_x0000_s13313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001340000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001340000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1505,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1518,9 +1515,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -1802,11 +1799,11 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
@@ -1820,8 +1817,8 @@
     <col min="65" max="65" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1">
+    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="75" t="s">
         <v>0</v>
@@ -1890,7 +1887,7 @@
       <c r="BL2" s="17"/>
       <c r="BM2" s="17"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1">
+    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="37"/>
       <c r="C3" s="38"/>
@@ -1957,7 +1954,7 @@
       <c r="BL3" s="27"/>
       <c r="BM3" s="27"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="48" t="s">
         <v>1</v>
@@ -2038,7 +2035,7 @@
       <c r="BL4" s="27"/>
       <c r="BM4" s="27"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="49"/>
       <c r="C5" s="46"/>
@@ -2105,7 +2102,7 @@
       <c r="BL5" s="27"/>
       <c r="BM5" s="27"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="43" t="s">
         <v>8</v>
@@ -2200,7 +2197,7 @@
       <c r="BL6" s="54"/>
       <c r="BM6" s="27"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="43" t="s">
         <v>9</v>
@@ -2439,7 +2436,7 @@
       </c>
       <c r="BM7" s="27"/>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1">
+    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -2506,7 +2503,7 @@
       <c r="BL8" s="34"/>
       <c r="BM8" s="27"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1">
+    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="61" t="s">
         <v>10</v>
@@ -2753,7 +2750,7 @@
       </c>
       <c r="BM9" s="27"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
@@ -2819,7 +2816,7 @@
       <c r="BL10" s="31"/>
       <c r="BM10" s="27"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="63" t="s">
         <v>16</v>
@@ -3057,7 +3054,7 @@
       <c r="BM11" s="23"/>
       <c r="BP11" s="36"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="22" t="s">
         <v>17</v>
@@ -3304,7 +3301,7 @@
       </c>
       <c r="BM12" s="23"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="22" t="s">
         <v>20</v>
@@ -3551,7 +3548,7 @@
       </c>
       <c r="BM13" s="23"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="22" t="s">
         <v>22</v>
@@ -3798,7 +3795,7 @@
       </c>
       <c r="BM14" s="23"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="22" t="s">
         <v>25</v>
@@ -4045,7 +4042,7 @@
       </c>
       <c r="BM15" s="23"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="22" t="s">
         <v>27</v>
@@ -4292,7 +4289,7 @@
       </c>
       <c r="BM16" s="23"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="22" t="s">
         <v>28</v>
@@ -4539,7 +4536,7 @@
       </c>
       <c r="BM17" s="23"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="68" t="s">
         <v>29</v>
@@ -4786,7 +4783,7 @@
       </c>
       <c r="BM18" s="23"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="68" t="s">
         <v>32</v>
@@ -5031,7 +5028,7 @@
       </c>
       <c r="BM19" s="23"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="68" t="s">
         <v>34</v>
@@ -5276,7 +5273,7 @@
       </c>
       <c r="BM20" s="23"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="70" t="s">
         <v>35</v>
@@ -5513,7 +5510,7 @@
       </c>
       <c r="BM21" s="23"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="22" t="s">
         <v>36</v>
@@ -5754,7 +5751,7 @@
       </c>
       <c r="BM22" s="23"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="22" t="s">
         <v>37</v>
@@ -5995,7 +5992,7 @@
       </c>
       <c r="BM23" s="23"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="63" t="s">
         <v>38</v>
@@ -6236,7 +6233,7 @@
       </c>
       <c r="BM24" s="23"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="22" t="s">
         <v>39</v>
@@ -6477,15 +6474,13 @@
       </c>
       <c r="BM25" s="23"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20">
         <v>45956</v>
@@ -6720,10 +6715,10 @@
       </c>
       <c r="BM26" s="23"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -6961,10 +6956,10 @@
       </c>
       <c r="BM27" s="23"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -7202,10 +7197,10 @@
       </c>
       <c r="BM28" s="23"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -7439,10 +7434,10 @@
       </c>
       <c r="BM29" s="23"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -7680,10 +7675,10 @@
       </c>
       <c r="BM30" s="23"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -7921,10 +7916,10 @@
       </c>
       <c r="BM31" s="23"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -8162,10 +8157,10 @@
       </c>
       <c r="BM32" s="23"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -8403,7 +8398,7 @@
       </c>
       <c r="BM33" s="23"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="22"/>
       <c r="C34" s="18"/>
@@ -8638,7 +8633,7 @@
       </c>
       <c r="BM34" s="23"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="22"/>
       <c r="C35" s="18"/>
@@ -8873,10 +8868,10 @@
       </c>
       <c r="BM35" s="55"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
@@ -8942,12 +8937,12 @@
       <c r="BL36" s="50"/>
       <c r="BM36" s="23"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -8976,56 +8971,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9172,6 +9167,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9471,25 +9475,45 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CDF409-87B8-4BD3-A7A0-FA31B09DB512}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CDF409-87B8-4BD3-A7A0-FA31B09DB512}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Documents/440Schedule.xlsx
+++ b/Documents/440Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0120DAFD-6FFE-455D-8E34-6C17092BC7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AFC8E-1733-4462-A5A8-1FF98A32D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dark" sheetId="16" r:id="rId1"/>
@@ -1799,8 +1799,8 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4548,7 +4548,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F18" s="66">
         <v>45922</v>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="69">
         <v>45922</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="69">
         <v>45921</v>
@@ -5517,7 +5517,9 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
       <c r="F22" s="20">
         <v>45942</v>
       </c>
@@ -5758,7 +5760,9 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="19">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="20">
         <v>45942</v>
       </c>
@@ -9167,15 +9171,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9475,6 +9470,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
   <ds:schemaRefs>
@@ -9488,14 +9492,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CDF409-87B8-4BD3-A7A0-FA31B09DB512}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9516,6 +9512,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>